--- a/CSharp/ArrayAndStrings/1.1 - Time Analysis.xlsx
+++ b/CSharp/ArrayAndStrings/1.1 - Time Analysis.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\readiness\CrackingTheCodingInterview\CSharp\ArrayAndStrings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CrackingTheCodingInterview\CSharp\ArrayAndStrings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12128" activeTab="1" xr2:uid="{936646BC-B0CE-4980-81B7-1B0D25F07560}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7095" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Brute Force" sheetId="1" r:id="rId1"/>
     <sheet name="Optimized" sheetId="2" r:id="rId2"/>
+    <sheet name="Brute Force - Fixed" sheetId="8" r:id="rId3"/>
+    <sheet name="Optimized - Fixed" sheetId="3" r:id="rId4"/>
+    <sheet name="ThreeSum" sheetId="4" r:id="rId5"/>
+    <sheet name="ThreeSumDeluxe" sheetId="6" r:id="rId6"/>
+    <sheet name="Order Growth" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>N</t>
   </si>
@@ -47,12 +53,75 @@
   <si>
     <t>Calculated Time</t>
   </si>
+  <si>
+    <t>Log N</t>
+  </si>
+  <si>
+    <t>Log T(N)</t>
+  </si>
+  <si>
+    <t>Predictions</t>
+  </si>
+  <si>
+    <t>Book Example</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>(slope) The lower the better</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Logarithmic</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Linearithmic</t>
+  </si>
+  <si>
+    <t>Quadratic</t>
+  </si>
+  <si>
+    <t>INTERCEPT</t>
+  </si>
+  <si>
+    <t>SLOPE (Order-Growth)</t>
+  </si>
+  <si>
+    <t>LOG-LOG</t>
+  </si>
+  <si>
+    <t>ORIGINAL</t>
+  </si>
+  <si>
+    <t>Book Example Deluxe</t>
+  </si>
+  <si>
+    <t>Big-Oh</t>
+  </si>
+  <si>
+    <t>O(Log N)</t>
+  </si>
+  <si>
+    <t>O(N Log N)</t>
+  </si>
+  <si>
+    <t>N2 Log N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,13 +129,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,16 +184,129 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -859,6 +1075,2763 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log-Log plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Brute Force - Fixed'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log T(N)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Brute Force - Fixed'!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Brute Force - Fixed'!$H$5:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8073549220576042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8073549220576042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4594316186372978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3575520046180838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2384047393250794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1922928144707683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE41-4F28-80BC-C4B2E8AF945B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="865348768"/>
+        <c:axId val="865353688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="865348768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865353688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="865353688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865348768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log-Log plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Optimized - Fixed'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log T(N)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Optimized - Fixed'!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Optimized - Fixed'!$H$5:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5849625007211563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5849625007211563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5849625007211563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8073549220576042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4594316186372978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4594316186372973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-931C-485B-9EAA-E2F3A2392458}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="520038816"/>
+        <c:axId val="520039472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="520038816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520039472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="520039472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520038816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log-Log plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ThreeSum!$G$7:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.9659999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.965999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.965999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.965999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ThreeSum!$H$7:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-3.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6749999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07CB-4AC3-A00B-26A05BCEE1F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755233616"/>
+        <c:axId val="755238208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755233616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755238208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="755238208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755233616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log-Log plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ThreeSumDeluxe!$G$7:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.965784284662087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.965784284662087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.965784284662087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.965784284662087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.965784284662087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.965784284662087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.965784284662089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.965784284662089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ThreeSumDeluxe!$H$7:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-2.8365012677171206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4739311883324122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.556393348524385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.8893689053568565E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.875780063068488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8953026213333071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8865501473243427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1153038061521166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-875C-4C25-8489-6AA46D2184AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755233616"/>
+        <c:axId val="755238208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755233616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755238208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="755238208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755233616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="128000"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ThreeSumDeluxe!$E$5:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ThreeSumDeluxe!$F$5:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4F3-431E-802C-A4CD889871F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="761114656"/>
+        <c:axId val="761109736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="761114656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761109736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="761109736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761114656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Typical Orders of Growth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Order Growth'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Constant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order Growth'!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5849625007211563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3219280948873622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order Growth'!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E16-47DE-BF23-A3996F1AA1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Order Growth'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logarithmic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order Growth'!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5849625007211563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3219280948873622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order Growth'!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66444870745388951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2153232957367877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E16-47DE-BF23-A3996F1AA1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Order Growth'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order Growth'!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5849625007211563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3219280948873622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order Growth'!$J$4:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5849625007211563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3219280948873622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E16-47DE-BF23-A3996F1AA1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Order Growth'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linearithmic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order Growth'!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5849625007211563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3219280948873622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order Growth'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2494112081750459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5372513906241498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3E16-47DE-BF23-A3996F1AA1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Order Growth'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quadratic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order Growth'!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5849625007211563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3219280948873622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order Growth'!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1699250014423126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6438561897747244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3E16-47DE-BF23-A3996F1AA1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="865334664"/>
+        <c:axId val="865329088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="865334664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865329088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="865329088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865334664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -939,6 +3912,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1456,6 +4669,3102 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2051,6 +8360,302 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2FBE6D-5367-43A6-8374-BC86DEB7E145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDC2BC-E882-4DEA-962A-63473909CE86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4303C5AA-E6DA-4E06-99DD-8F8DBEA65B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D4DB12-6FCC-4059-9B24-3107DACCFA2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA3A692-12FA-490A-96E1-387222A2622E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD32A395-5F68-4654-9FCD-E3E68902E86C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="G4:M9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+  <autoFilter ref="G4:M9"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="N" dataDxfId="16">
+      <calculatedColumnFormula>LOG(A5,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Constant" dataDxfId="15">
+      <calculatedColumnFormula>LOG(B5,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Logarithmic" dataDxfId="14">
+      <calculatedColumnFormula>LOG(C5,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Linear" dataDxfId="13">
+      <calculatedColumnFormula>LOG(D5,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Linearithmic" dataDxfId="12">
+      <calculatedColumnFormula>LOG(E5,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Quadratic" dataDxfId="0">
+      <calculatedColumnFormula>LOG(F5,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="N2 Log N" dataDxfId="1">
+      <calculatedColumnFormula>LOG(A5*A5*LOG(A5,2),2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F9" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <autoFilter ref="A4:F9"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="N" dataDxfId="9"/>
+    <tableColumn id="2" name="Constant" dataDxfId="8"/>
+    <tableColumn id="3" name="Logarithmic" dataDxfId="7">
+      <calculatedColumnFormula>LOG(A5,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Linear" dataDxfId="6">
+      <calculatedColumnFormula>A5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Linearithmic" dataDxfId="5">
+      <calculatedColumnFormula>A5*LOG(A5,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Quadratic" dataDxfId="4">
+      <calculatedColumnFormula>A5^2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2349,25 +8954,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA2D4D7-6523-4C1C-AA0D-C0C7AFE792B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E5" sqref="E5:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -2378,7 +8983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>4</v>
       </c>
@@ -2390,7 +8995,7 @@
         <v>3.4303801289064593</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>8</v>
       </c>
@@ -2402,7 +9007,7 @@
         <v>8.7214526666733008</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>16</v>
       </c>
@@ -2414,7 +9019,7 @@
         <v>22.173559127183527</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>32</v>
       </c>
@@ -2426,7 +9031,7 @@
         <v>56.374407241293262</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>64</v>
       </c>
@@ -2438,7 +9043,7 @@
         <v>143.32718412855255</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>128</v>
       </c>
@@ -2450,7 +9055,7 @@
         <v>364.39729862335196</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -2458,7 +9063,7 @@
         <v>0.53069999999999995</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>3</v>
       </c>
@@ -2477,26 +9082,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BAC90E-03E0-46FA-9A32-3553AD50B12E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -2507,7 +9112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>4</v>
       </c>
@@ -2519,7 +9124,7 @@
         <v>0.98173032406760952</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>8</v>
       </c>
@@ -2531,7 +9136,7 @@
         <v>1.023860159872618</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>16</v>
       </c>
@@ -2543,7 +9148,7 @@
         <v>1.0677979494725167</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>32</v>
       </c>
@@ -2555,7 +9160,7 @@
         <v>1.1136212791398845</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>64</v>
       </c>
@@ -2567,7 +9172,7 @@
         <v>1.1614110646735907</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>128</v>
       </c>
@@ -2579,7 +9184,7 @@
         <v>1.2112516942816141</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -2587,7 +9192,7 @@
         <v>0.90259999999999996</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>3</v>
       </c>
@@ -2600,6 +9205,1278 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <f>LOG(E5,2)</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <f>LOG(F5,2)</f>
+        <v>2.8073549220576042</v>
+      </c>
+      <c r="I5" s="1">
+        <f>ROUND(POWER(2,$E$14)*POWER(E5,$E$15),2)</f>
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:H10" si="0">LOG(E6,2)</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8073549220576042</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I10" si="1">ROUND(POWER(2,$E$14)*POWER(E6,$E$15),2)</f>
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4594316186372978</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>22.17</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3575520046180838</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>56.37</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1">
+        <v>151</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2384047393250794</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>143.31</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>128</v>
+      </c>
+      <c r="F10" s="1">
+        <v>585</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1922928144707683</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>364.34</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <f>INTERCEPT(H5:H10,G5:G10)</f>
+        <v>-0.91403435883380357</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SLOPE(H5:H10,G5:G10)</f>
+        <v>1.3461702657099726</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <f>LOG(E5,2)</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <f>LOG(F5,2)</f>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="I5" s="1">
+        <f>ROUND(POWER(2,$E$14)*POWER(E5,$E$15),2)</f>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G10" si="0">LOG(E6,2)</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H10" si="1">LOG(F6,2)</f>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I10" si="2">ROUND(POWER(2,$E$14)*POWER(E6,$E$15),2)</f>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8073549220576042</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4594316186372978</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>128</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4594316186372973</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>INTERCEPT(H5:H10,G5:G10)</f>
+        <v>-0.14786298425534428</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <f>SLOPE(H5:H10,G5:G10)</f>
+        <v>0.60623272470473089</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>250</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ROUND(LOG(E7, 2),3)</f>
+        <v>9.9659999999999993</v>
+      </c>
+      <c r="H7" s="1">
+        <f>ROUND(LOG(F7,2),3)</f>
+        <v>-3.3220000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <f>ROUND(POWER(2,$E$14)*POWER(E7,$E$15),2)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8:G10" si="0">ROUND(LOG(E8, 2),3)</f>
+        <v>10.965999999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H10" si="1">ROUND(LOG(F8,2),3)</f>
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I11" si="2">ROUND(POWER(2,$E$14)*POWER(E8,$E$15),2)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>11.965999999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>12.965999999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6749999999999998</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>51.06</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>408.16</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>ROUND(INTERCEPT(H7:H10,G7:G10), 4)</f>
+        <v>-33.2104</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <f>ROUND(SLOPE(H7:H10,G7:G10),3)</f>
+        <v>2.9990000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>250</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <f>LOG(E7, 2)</f>
+        <v>9.965784284662087</v>
+      </c>
+      <c r="H7" s="1">
+        <f>LOG(F7,2)</f>
+        <v>-2.8365012677171206</v>
+      </c>
+      <c r="I7" s="1">
+        <f>ROUND(POWER(2,$E$17)*POWER(E7,$E$18),2)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8:G11" si="0">LOG(E8, 2)</f>
+        <v>10.965784284662087</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:I11" si="1">LOG(F8,2)</f>
+        <v>-2.4739311883324122</v>
+      </c>
+      <c r="I8" s="1">
+        <f>ROUND(POWER(2,$E$17)*POWER(E8,$E$18),2)</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>11.965784284662087</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.556393348524385</v>
+      </c>
+      <c r="I9" s="1">
+        <f>ROUND(POWER(2,$E$17)*POWER(E9,$E$18),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>12.965784284662087</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.8893689053568565E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <f>ROUND(POWER(2,$E$17)*POWER(E10,$E$18),2)</f>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11:G13" si="2">LOG(E11, 2)</f>
+        <v>13.965784284662087</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11:H14" si="3">LOG(F11,2)</f>
+        <v>1.875780063068488</v>
+      </c>
+      <c r="I11" s="1">
+        <f>ROUND(POWER(2,$E$17)*POWER(E11,$E$18),2)</f>
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>32000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>14.88</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>14.965784284662087</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8953026213333071</v>
+      </c>
+      <c r="I12" s="1">
+        <f>ROUND(POWER(2,$E$17)*POWER(E12,$E$18),2)</f>
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>64000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>59.16</v>
+      </c>
+      <c r="G13" s="1">
+        <f>LOG(E13, 2)</f>
+        <v>15.965784284662089</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8865501473243427</v>
+      </c>
+      <c r="I13" s="1">
+        <f>ROUND(POWER(2,$E$17)*POWER(E13,$E$18),2)</f>
+        <v>64.41</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>128000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>554.6</v>
+      </c>
+      <c r="G14" s="1">
+        <f>LOG(E14, 2)</f>
+        <v>16.965784284662089</v>
+      </c>
+      <c r="H14" s="1">
+        <f>LOG(F14,2)</f>
+        <v>9.1153038061521166</v>
+      </c>
+      <c r="I14" s="1">
+        <f>ROUND(POWER(2,$E$17)*POWER(E14,$E$18),2)</f>
+        <v>210.94</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <f>INTERCEPT(H7:H14,G7:G14)</f>
+        <v>-21.313992840577306</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <f>SLOPE(H7:H14,G7:G14)</f>
+        <v>1.7113667125840895</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <f>LOG(A5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <f>A5*LOG(A5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>A5^2</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <f>LOG(A5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>LOG(B5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f>LOG(D5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f>LOG(F5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:C9" si="0">LOG(A6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D9" si="1">A6</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" ref="E6:E9" si="2">A6*LOG(A6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F9" si="3">A6^2</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <f>LOG(A6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <f>LOG(B6,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>LOG(C6,2)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>LOG(D6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <f>LOG(E6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <f>LOG(F6,2)</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <f>LOG(A6*A6*LOG(A6,2),2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7548875021634691</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G7" s="4">
+        <f>LOG(A7,2)</f>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="H7" s="4">
+        <f>LOG(B7,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f>LOG(C7,2)</f>
+        <v>0.66444870745388951</v>
+      </c>
+      <c r="J7" s="4">
+        <f>LOG(D7,2)</f>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="K7" s="4">
+        <f>LOG(E7,2)</f>
+        <v>2.2494112081750459</v>
+      </c>
+      <c r="L7" s="4">
+        <f>LOG(F7,2)</f>
+        <v>3.1699250014423126</v>
+      </c>
+      <c r="M7" s="4">
+        <f>LOG(A7*A7*LOG(A7,2),2)</f>
+        <v>3.834373708896202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="4">
+        <f>LOG(A8,2)</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <f>LOG(B8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f>LOG(C8,2)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <f>LOG(D8,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <f>LOG(E8,2)</f>
+        <v>3</v>
+      </c>
+      <c r="L8" s="4">
+        <f>LOG(F8,2)</f>
+        <v>4</v>
+      </c>
+      <c r="M8" s="4">
+        <f>LOG(A8*A8*LOG(A8,2),2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3219280948873622</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="2"/>
+        <v>11.60964047443681</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="G9" s="4">
+        <f>LOG(A9,2)</f>
+        <v>2.3219280948873622</v>
+      </c>
+      <c r="H9" s="4">
+        <f>LOG(B9,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f>LOG(C9,2)</f>
+        <v>1.2153232957367877</v>
+      </c>
+      <c r="J9" s="4">
+        <f>LOG(D9,2)</f>
+        <v>2.3219280948873622</v>
+      </c>
+      <c r="K9" s="4">
+        <f>LOG(E9,2)</f>
+        <v>3.5372513906241498</v>
+      </c>
+      <c r="L9" s="4">
+        <f>LOG(F9,2)</f>
+        <v>4.6438561897747244</v>
+      </c>
+      <c r="M9" s="4">
+        <f>LOG(A9*A9*LOG(A9,2),2)</f>
+        <v>5.8591794855115129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SLOPE(H5:H9,$G$5:$G$9)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" ref="I11:M11" si="4">SLOPE(I5:I9,$G$5:$G$9)</f>
+        <v>0.56416529376453783</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="4"/>
+        <v>1.5641652937645378</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="4"/>
+        <v>2.5641652937645381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4">
+        <f>INTERCEPT(H5:H9,$G$5:$G$9)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" ref="I12:M12" si="5">INTERCEPT(I5:I9,$G$5:$G$9)</f>
+        <v>-0.20337119173606522</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.20337119173606522</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.20337119173606544</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K5 M5" calculatedColumn="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>